--- a/acciones - copia.xlsx
+++ b/acciones - copia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universidad\Electivos Comunes\Big Data\Proyecto covid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{621BFFAD-1CD2-4FD4-984E-4E569D6C6219}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E313BF0B-7145-411A-BB2E-F9E803F49945}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>Fecha</t>
   </si>
@@ -98,6 +98,81 @@
   </si>
   <si>
     <t>Nueva metodología de conteo.</t>
+  </si>
+  <si>
+    <t>First case of the virus in Chile</t>
+  </si>
+  <si>
+    <t>Pandemic declared</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phase 3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phase 4. Influenza vaccination campaign started in advance. </t>
+  </si>
+  <si>
+    <t>Closing of national borders</t>
+  </si>
+  <si>
+    <t>State of constitutional emergency. Closure of the malls throughout Chile. Use of 2% constitutional (4.7% of GDP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sanitary customs in eight regions of Chile </t>
+  </si>
+  <si>
+    <t>First coronavirus death in Chile</t>
+  </si>
+  <si>
+    <t>Curfew throughout the country.</t>
+  </si>
+  <si>
+    <t>Total quarantine in seven communes of the RM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mandatory quarantine extended for one week in six of the seven communes of the MR </t>
+  </si>
+  <si>
+    <t>Call to wear masks in public places</t>
+  </si>
+  <si>
+    <t>Mask use on public and private transport is mandatory.</t>
+  </si>
+  <si>
+    <t>The western sector of Puente Alto commune (west of Concha y Toro Avenue) is added to the quarantine.</t>
+  </si>
+  <si>
+    <t>Quarantine ends in some communes of Stgo; Chillán and Chillán Viejo; and Hualpén and San Pedro de la Paz.</t>
+  </si>
+  <si>
+    <t>It is surpassed the ten thousand total infections at national level.  President Sebastián Piñera calls for the reactivation of the economy and instructs the gradual return of public officials to their jobs in a face-to-face manner.</t>
+  </si>
+  <si>
+    <t>Suspension of the return to classes indefinitely</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 12 communes are quarantined. Ñuñoa ends its confinement.</t>
+  </si>
+  <si>
+    <t>Minsal reduces from 14 to 4 days the maximum license for suspected cases of COVID-19</t>
+  </si>
+  <si>
+    <t>R.M. goes into quarantine</t>
+  </si>
+  <si>
+    <t>Chile has surpassed mainland China in the total number of officially registered infections.</t>
+  </si>
+  <si>
+    <t>New counting methodology.</t>
+  </si>
+  <si>
+    <t>Quarantine for Valparaiso, Viña del Mar and 6 other communes </t>
+  </si>
+  <si>
+    <t>Jaime Mañalich leaves office and Enrique Paris takes over. </t>
+  </si>
+  <si>
+    <t>Hito_eng</t>
   </si>
 </sst>
 </file>
@@ -939,10 +1014,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B163"/>
+  <dimension ref="A1:C163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -950,637 +1025,712 @@
     <col min="2" max="2" width="25.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43892</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43893</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43894</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43895</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43896</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43897</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43898</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43899</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43900</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43901</v>
       </c>
       <c r="B11" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43902</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43903</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43904</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43905</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43906</v>
       </c>
       <c r="B16" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43907</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43908</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43909</v>
       </c>
       <c r="B19" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43910</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43911</v>
       </c>
       <c r="B21" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43912</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43913</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43914</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43915</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43916</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43917</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43918</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43919</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43920</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43921</v>
       </c>
       <c r="B31" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43922</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43923</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>43924</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>43925</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>43926</v>
       </c>
       <c r="B36" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>43927</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>43928</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>43929</v>
       </c>
       <c r="B39" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>43930</v>
       </c>
       <c r="B40" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>43931</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>43932</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43933</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43934</v>
       </c>
       <c r="B44" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43935</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43936</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>43937</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>43938</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>43939</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>43940</v>
       </c>
       <c r="B50" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>43941</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>43942</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>43943</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>43944</v>
       </c>
       <c r="B54" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>43945</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>43946</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>43947</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>43948</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>43949</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>43950</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>43951</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>43952</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>43953</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>43954</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>43955</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>43956</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>43957</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>43958</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>43959</v>
       </c>
       <c r="B69" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>43960</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>43961</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>43962</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>43963</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>43964</v>
       </c>
       <c r="B74" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C74" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>43965</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>43966</v>
       </c>
       <c r="B76" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C76" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>43967</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>43968</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>43969</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>43970</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>43971</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>43972</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>43973</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>43974</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>43975</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>43976</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>43977</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>43978</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>43979</v>
       </c>
       <c r="B89" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C89" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>43980</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>43981</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>43982</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>43983</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>43984</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>43985</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>43986</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>43987</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>43988</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>43989</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>43990</v>
       </c>
       <c r="B100" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C100" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>43991</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>43992</v>
       </c>
       <c r="B102" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C102" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>43993</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>43994</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>43995</v>
       </c>
       <c r="B105" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C105" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>43996</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>43997</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>43998</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>43999</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>44000</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>44001</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>44002</v>
       </c>
